--- a/WorkBot/main/backend/pricing/Templates/IBFavorite.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBFavorite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D5254-9E93-44CF-8546-D5A16524E401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E7AA88-E4DE-43A0-A6C4-6EC924DC96B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Item</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Croissant - Spinach Feta</t>
   </si>
   <si>
-    <t>Croissant - Leek Parmesan</t>
-  </si>
-  <si>
     <t>Frozen Orange Juice</t>
   </si>
   <si>
@@ -226,6 +223,30 @@
   </si>
   <si>
     <t>T9026</t>
+  </si>
+  <si>
+    <t>Corned Beef</t>
+  </si>
+  <si>
+    <t>Pastrami</t>
+  </si>
+  <si>
+    <t>C9108</t>
+  </si>
+  <si>
+    <t>E3556</t>
+  </si>
+  <si>
+    <t>All Trump Flour</t>
+  </si>
+  <si>
+    <t>Buttermilk</t>
+  </si>
+  <si>
+    <t>K1570</t>
+  </si>
+  <si>
+    <t>Roasted Red Pepper</t>
   </si>
 </sst>
 </file>
@@ -357,7 +378,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +439,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,19 +482,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,52 +821,52 @@
     <col min="4" max="4" width="30" style="20" customWidth="1"/>
     <col min="5" max="5" width="15" style="11" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" style="36" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" style="24" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="26" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="16" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="7" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="8" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="28" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="22"/>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="28" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="28" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="25"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="27"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
@@ -882,12 +909,12 @@
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6">
         <v>1151422</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="27"/>
       <c r="M3" s="8">
         <v>18038</v>
       </c>
@@ -902,721 +929,787 @@
       <c r="I4" s="6">
         <v>7421761</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="27"/>
       <c r="M4" s="8">
         <v>37019</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="H5" s="14"/>
-      <c r="K5" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="27"/>
       <c r="M5" s="8">
-        <v>32017</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="6">
-        <v>7143223</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="17"/>
+        <v>67</v>
+      </c>
       <c r="M6" s="8">
-        <v>11458</v>
-      </c>
-      <c r="P6" s="18"/>
+        <v>22109</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="H7" s="14"/>
+      <c r="K7" s="27"/>
+      <c r="M7" s="8">
+        <v>32017</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="H8" s="15"/>
       <c r="I8" s="6">
-        <v>4617771</v>
-      </c>
-      <c r="K8" s="39"/>
+        <v>7143223</v>
+      </c>
+      <c r="K8" s="27"/>
       <c r="L8" s="17"/>
       <c r="M8" s="8">
-        <v>27098</v>
-      </c>
+        <v>11458</v>
+      </c>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="6">
-        <v>1161181</v>
-      </c>
-      <c r="K9" s="39"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="8">
-        <v>29999</v>
-      </c>
-      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="H10" s="14"/>
       <c r="I10" s="6">
-        <v>2700171</v>
-      </c>
-      <c r="K10" s="39"/>
+        <v>4617771</v>
+      </c>
+      <c r="K10" s="27"/>
       <c r="L10" s="17"/>
-      <c r="P10" s="18"/>
+      <c r="M10" s="8">
+        <v>27098</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="H11" s="15"/>
       <c r="I11" s="6">
-        <v>2700817</v>
-      </c>
-      <c r="K11" s="39"/>
+        <v>1161181</v>
+      </c>
+      <c r="K11" s="27"/>
       <c r="L11" s="17"/>
+      <c r="M11" s="8">
+        <v>29999</v>
+      </c>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="15"/>
       <c r="I12" s="6">
-        <v>2700827</v>
-      </c>
-      <c r="K12" s="39"/>
+        <v>2700171</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="8">
+        <v>51279</v>
+      </c>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" s="15"/>
-      <c r="K13" s="39"/>
+      <c r="I13" s="6">
+        <v>2700817</v>
+      </c>
+      <c r="K13" s="27"/>
       <c r="L13" s="17"/>
-      <c r="P13" s="18"/>
+      <c r="M13" s="8">
+        <v>51286</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="H14" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="14"/>
       <c r="I14" s="6">
-        <v>1080739</v>
-      </c>
-      <c r="K14" s="39"/>
+        <v>2700827</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="M14" s="8">
+        <v>51280</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="10"/>
       <c r="H15" s="15"/>
-      <c r="K15" s="39"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="17"/>
       <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="17"/>
-      <c r="P16" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="6">
+        <v>1080739</v>
+      </c>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="10"/>
       <c r="H17" s="15"/>
-      <c r="K17" s="39"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="17"/>
+      <c r="M17" s="8">
+        <v>15268</v>
+      </c>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="6">
-        <v>2072536</v>
-      </c>
-      <c r="K18" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="17"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="6">
-        <v>8821554</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="P19" s="18"/>
+        <v>2072536</v>
+      </c>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="10"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="8">
-        <v>34388</v>
-      </c>
+      <c r="I20" s="6">
+        <v>8821554</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>54</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="H21" s="15"/>
-      <c r="K21" s="39"/>
+      <c r="I21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="27"/>
       <c r="L21" s="17"/>
       <c r="M21" s="8">
-        <v>60304</v>
-      </c>
-      <c r="P21" s="18"/>
+        <v>34388</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="6">
-        <v>7127824</v>
-      </c>
-      <c r="K22" s="39"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="17"/>
       <c r="M22" s="8">
-        <v>60295</v>
-      </c>
+        <v>60304</v>
+      </c>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="10">
-        <v>65350</v>
+        <v>28</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="6">
+        <v>7127824</v>
+      </c>
+      <c r="K23" s="27"/>
       <c r="L23" s="17"/>
       <c r="M23" s="8">
-        <v>51153</v>
-      </c>
-      <c r="P23" s="18"/>
+        <v>60295</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="E24" s="10">
+        <v>65350</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="6">
-        <v>1865161</v>
-      </c>
-      <c r="K24" s="39"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="17"/>
       <c r="M24" s="8">
-        <v>25104</v>
-      </c>
+        <v>51153</v>
+      </c>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="6">
-        <v>7073742</v>
-      </c>
-      <c r="K25" s="39"/>
+        <v>1865161</v>
+      </c>
+      <c r="K25" s="27"/>
       <c r="M25" s="8">
-        <v>25554</v>
-      </c>
-      <c r="P25" s="18"/>
+        <v>25104</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="10">
-        <v>73400</v>
-      </c>
-      <c r="H26" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="15"/>
       <c r="I26" s="6">
-        <v>5925987</v>
-      </c>
-      <c r="K26" s="39"/>
+        <v>7073742</v>
+      </c>
+      <c r="K26" s="27"/>
       <c r="M26" s="8">
-        <v>29046</v>
-      </c>
+        <v>25554</v>
+      </c>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="10">
-        <v>73410</v>
+        <v>69</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="6">
-        <v>3031442</v>
-      </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="17"/>
+        <v>5797467</v>
+      </c>
+      <c r="K27" s="27"/>
       <c r="M27" s="8">
-        <v>29047</v>
-      </c>
+        <v>24979</v>
+      </c>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="E28" s="10">
+        <v>73400</v>
+      </c>
+      <c r="H28" s="14"/>
       <c r="I28" s="6">
-        <v>6472502</v>
-      </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="17"/>
+        <v>5925987</v>
+      </c>
+      <c r="K28" s="27"/>
       <c r="M28" s="8">
-        <v>76474</v>
-      </c>
-      <c r="P28" s="18"/>
+        <v>29046</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29" s="10">
-        <v>72976</v>
-      </c>
-      <c r="H29" s="14"/>
+        <v>73410</v>
+      </c>
+      <c r="H29" s="15"/>
       <c r="I29" s="6">
-        <v>9035601</v>
-      </c>
-      <c r="K29" s="39"/>
+        <v>3031442</v>
+      </c>
+      <c r="K29" s="27"/>
       <c r="L29" s="17"/>
       <c r="M29" s="8">
-        <v>25803</v>
+        <v>29047</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="K30" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="6">
+        <v>6472502</v>
+      </c>
+      <c r="K30" s="27"/>
       <c r="L30" s="17"/>
       <c r="M30" s="8">
-        <v>25790</v>
+        <v>76474</v>
       </c>
       <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="K31" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="E31" s="10">
+        <v>72976</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="6">
+        <v>9035601</v>
+      </c>
+      <c r="K31" s="27"/>
       <c r="L31" s="17"/>
       <c r="M31" s="8">
-        <v>25781</v>
+        <v>25803</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="K32" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="17"/>
       <c r="M32" s="8">
-        <v>25824</v>
-      </c>
+        <v>25790</v>
+      </c>
+      <c r="P32" s="18"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="K33" s="39"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="17"/>
       <c r="M33" s="8">
-        <v>25793</v>
+        <v>25781</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="K34" s="39"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="17"/>
       <c r="M34" s="8">
-        <v>25640</v>
-      </c>
-      <c r="P34" s="18"/>
+        <v>25824</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B35" s="42"/>
       <c r="E35" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="6">
-        <v>1203207</v>
-      </c>
-      <c r="K35" s="39"/>
+      <c r="K35" s="27"/>
       <c r="L35" s="17"/>
       <c r="M35" s="8">
+        <v>25793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="E36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="8">
+        <v>25640</v>
+      </c>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="E37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="6">
+        <v>1203207</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="8">
         <v>25328</v>
       </c>
-      <c r="P35" s="18"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="10"/>
-      <c r="H36" s="15"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="17"/>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="10"/>
-      <c r="H37" s="15"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="17"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="H38" s="15"/>
-      <c r="K38" s="39"/>
+      <c r="I38" s="6">
+        <v>2839082</v>
+      </c>
+      <c r="K38" s="27"/>
       <c r="L38" s="17"/>
+      <c r="M38" s="8">
+        <v>10868</v>
+      </c>
       <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="10"/>
-      <c r="G39" s="37"/>
+      <c r="A39" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="10">
+        <v>65698</v>
+      </c>
       <c r="H39" s="15"/>
-      <c r="K39" s="39"/>
+      <c r="I39" s="6">
+        <v>6042113</v>
+      </c>
+      <c r="K39" s="27"/>
       <c r="L39" s="17"/>
-      <c r="P39" s="18"/>
+      <c r="M39" s="8">
+        <v>58997</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E40" s="10"/>
-      <c r="G40" s="37"/>
       <c r="H40" s="15"/>
+      <c r="K40" s="27"/>
       <c r="L40" s="17"/>
+      <c r="P40" s="18"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E41" s="10"/>
-      <c r="G41" s="37"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="15"/>
+      <c r="K41" s="27"/>
       <c r="L41" s="17"/>
       <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E42" s="10"/>
-      <c r="G42" s="37"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="15"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E43" s="10"/>
-      <c r="G43" s="37"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="15"/>
       <c r="L43" s="17"/>
       <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E44" s="10"/>
-      <c r="G44" s="37"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="15"/>
-      <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" s="10"/>
-      <c r="G45" s="37"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="15"/>
       <c r="L45" s="17"/>
       <c r="P45" s="18"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46" s="10"/>
-      <c r="G46" s="37"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="15"/>
-      <c r="K46" s="38"/>
       <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47" s="10"/>
-      <c r="G47" s="37"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="15"/>
+      <c r="L47" s="17"/>
       <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E48" s="10"/>
-      <c r="G48" s="37"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="15"/>
+      <c r="K48" s="26"/>
       <c r="L48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E49" s="10"/>
-      <c r="G49" s="37"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="15"/>
-      <c r="L49" s="17"/>
       <c r="P49" s="18"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="19"/>
       <c r="E50" s="10"/>
-      <c r="G50" s="37"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="15"/>
-      <c r="P50" s="18"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="19"/>
       <c r="E51" s="10"/>
-      <c r="H51" s="14"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="15"/>
+      <c r="L51" s="17"/>
+      <c r="P51" s="18"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="14"/>
-      <c r="L52" s="17"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="15"/>
       <c r="P52" s="18"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="10"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="15"/>
-      <c r="L53" s="17"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E54" s="10"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="15"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="14"/>
       <c r="L54" s="17"/>
       <c r="P54" s="18"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E55" s="10"/>
-      <c r="G55" s="37"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="15"/>
       <c r="L55" s="17"/>
-      <c r="P55" s="18"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E56" s="10"/>
-      <c r="G56" s="37"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="15"/>
+      <c r="L56" s="17"/>
+      <c r="P56" s="18"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E57" s="10"/>
-      <c r="G57" s="37"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="15"/>
+      <c r="L57" s="17"/>
+      <c r="P57" s="18"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E58" s="10"/>
-      <c r="G58" s="37"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="15"/>
-      <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="14"/>
-      <c r="L59" s="17"/>
-      <c r="P59" s="18"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E60" s="10"/>
-      <c r="G60" s="37"/>
+      <c r="G60" s="25"/>
       <c r="H60" s="15"/>
       <c r="L60" s="17"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="10"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="14"/>
       <c r="L61" s="17"/>
+      <c r="P61" s="18"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="10"/>
-      <c r="G62" s="37"/>
+      <c r="G62" s="25"/>
       <c r="H62" s="15"/>
       <c r="L62" s="17"/>
-      <c r="P62" s="18"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="10"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="15"/>
+      <c r="H63" s="14"/>
+      <c r="L63" s="17"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="14"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="15"/>
+      <c r="L64" s="17"/>
+      <c r="P64" s="18"/>
     </row>
     <row r="65" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E65" s="10"/>
-      <c r="G65" s="37"/>
+      <c r="G65" s="25"/>
       <c r="H65" s="15"/>
-      <c r="L65" s="17"/>
-      <c r="P65" s="18"/>
     </row>
     <row r="66" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E66" s="10"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="15"/>
-      <c r="L66" s="17"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E67" s="10"/>
-      <c r="G67" s="37"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="15"/>
       <c r="L67" s="17"/>
+      <c r="P67" s="18"/>
     </row>
     <row r="68" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E68" s="10"/>
-      <c r="G68" s="37"/>
+      <c r="G68" s="25"/>
       <c r="H68" s="15"/>
       <c r="L68" s="17"/>
     </row>
     <row r="69" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E69" s="10"/>
-      <c r="G69" s="37"/>
+      <c r="G69" s="25"/>
       <c r="H69" s="15"/>
       <c r="L69" s="17"/>
     </row>
     <row r="70" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E70" s="10"/>
-      <c r="G70" s="37"/>
+      <c r="G70" s="25"/>
       <c r="H70" s="15"/>
+      <c r="L70" s="17"/>
     </row>
     <row r="71" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E71" s="10"/>
-      <c r="G71" s="37"/>
+      <c r="G71" s="25"/>
       <c r="H71" s="15"/>
       <c r="L71" s="17"/>
-      <c r="P71" s="18"/>
     </row>
     <row r="72" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E72" s="10"/>
-      <c r="G72" s="37"/>
+      <c r="G72" s="25"/>
       <c r="H72" s="15"/>
-      <c r="L72" s="17"/>
-      <c r="P72" s="18"/>
     </row>
     <row r="73" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E73" s="10"/>
-      <c r="G73" s="37"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="15"/>
+      <c r="L73" s="17"/>
       <c r="P73" s="18"/>
     </row>
     <row r="74" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E74" s="10"/>
-      <c r="G74" s="37"/>
+      <c r="G74" s="25"/>
       <c r="H74" s="15"/>
       <c r="L74" s="17"/>
       <c r="P74" s="18"/>
     </row>
     <row r="75" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H75" s="14"/>
+      <c r="E75" s="10"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="15"/>
+      <c r="P75" s="18"/>
     </row>
     <row r="76" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H76" s="14"/>
+      <c r="E76" s="10"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="15"/>
+      <c r="L76" s="17"/>
+      <c r="P76" s="18"/>
+    </row>
+    <row r="77" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H78" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/WorkBot/main/backend/pricing/Templates/IBFavorite.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBFavorite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E7AA88-E4DE-43A0-A6C4-6EC924DC96B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65180951-5679-460D-9241-126BB1BF9892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Sysco</t>
   </si>
   <si>
-    <t>Renzi</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Roasted Red Pepper</t>
+  </si>
+  <si>
+    <t>US Foods</t>
   </si>
 </sst>
 </file>
@@ -454,6 +454,12 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,12 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -810,7 +810,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,83 +833,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="33" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="30"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="6">
         <v>1151422</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10">
         <v>50778</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="27"/>
       <c r="M5" s="8">
@@ -948,10 +948,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="8">
         <v>22109</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="10"/>
       <c r="H7" s="14"/>
@@ -970,10 +970,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="6">
@@ -988,10 +988,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="15"/>
       <c r="K9" s="27"/>
@@ -999,10 +999,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="6">
@@ -1016,7 +1016,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10"/>
       <c r="H11" s="15"/>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="6">
@@ -1050,10 +1050,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="6">
@@ -1067,10 +1067,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="6">
@@ -1083,7 +1083,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="10"/>
       <c r="H15" s="15"/>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="10"/>
       <c r="H16" s="15"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10"/>
       <c r="H17" s="15"/>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="14"/>
       <c r="K18" s="27"/>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="6">
@@ -1142,7 +1142,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="10"/>
       <c r="H20" s="15"/>
@@ -1154,12 +1154,12 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="10"/>
       <c r="H21" s="15"/>
       <c r="I21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="17"/>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="15"/>
       <c r="K22" s="27"/>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="6">
@@ -1201,7 +1201,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="10">
         <v>65350</v>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="6">
@@ -1232,10 +1232,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="6">
@@ -1249,10 +1249,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="6">
@@ -1266,7 +1266,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="10">
         <v>73400</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="10">
         <v>73410</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="6">
@@ -1317,7 +1317,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="10">
         <v>72976</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H32" s="14"/>
       <c r="K32" s="27"/>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="15"/>
       <c r="K33" s="27"/>
@@ -1369,13 +1369,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="15"/>
       <c r="K34" s="27"/>
@@ -1386,11 +1386,11 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="B35" s="30"/>
       <c r="E35" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="15"/>
       <c r="K35" s="27"/>
@@ -1401,11 +1401,11 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="42"/>
+        <v>39</v>
+      </c>
+      <c r="B36" s="30"/>
       <c r="E36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36" s="15"/>
       <c r="K36" s="27"/>
@@ -1417,11 +1417,11 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="42"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="30"/>
       <c r="E37" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="6">
@@ -1436,7 +1436,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="10"/>
       <c r="H38" s="15"/>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="10">
         <v>65698</v>

--- a/WorkBot/main/backend/pricing/Templates/IBFavorite.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBFavorite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65180951-5679-460D-9241-126BB1BF9892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABCF4FE-2C01-40F2-A151-1E1C4BB5613D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Croissant - Mini Assorted</t>
-  </si>
-  <si>
-    <t>Croissant - Ham and Cheese</t>
   </si>
   <si>
     <t>Croissant - Spinach Feta</t>
@@ -378,7 +375,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -804,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
       <c r="K1" s="39"/>
       <c r="L1" s="32"/>
       <c r="M1" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N1" s="40"/>
       <c r="O1" s="41"/>
@@ -909,14 +909,14 @@
         <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="6">
         <v>1151422</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="M3" s="8">
-        <v>18038</v>
+      <c r="M3" s="43">
+        <v>5514021</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -930,32 +930,30 @@
         <v>7421761</v>
       </c>
       <c r="K4" s="27"/>
-      <c r="M4" s="8">
-        <v>37019</v>
+      <c r="M4" s="43">
+        <v>8341919</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="27"/>
-      <c r="M5" s="8">
-        <v>22161</v>
+      <c r="M5" s="43">
+        <v>4909859</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="8">
-        <v>22109</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -964,8 +962,8 @@
       <c r="E7" s="10"/>
       <c r="H7" s="14"/>
       <c r="K7" s="27"/>
-      <c r="M7" s="8">
-        <v>32017</v>
+      <c r="M7" s="43">
+        <v>2825368</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -973,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="6">
@@ -981,8 +979,8 @@
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="8">
-        <v>11458</v>
+      <c r="M8" s="43">
+        <v>5297210</v>
       </c>
       <c r="P8" s="18"/>
     </row>
@@ -991,18 +989,19 @@
         <v>13</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="15"/>
       <c r="K9" s="27"/>
       <c r="L9" s="17"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="6">
@@ -1010,8 +1009,8 @@
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="8">
-        <v>27098</v>
+      <c r="M10" s="43">
+        <v>9047468</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1025,8 +1024,8 @@
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="8">
-        <v>29999</v>
+      <c r="M11" s="43">
+        <v>5432430</v>
       </c>
       <c r="P11" s="18"/>
     </row>
@@ -1035,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="6">
@@ -1043,8 +1042,8 @@
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="8">
-        <v>51279</v>
+      <c r="M12" s="43">
+        <v>8630881</v>
       </c>
       <c r="P12" s="18"/>
     </row>
@@ -1053,7 +1052,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="6">
@@ -1061,8 +1060,8 @@
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="8">
-        <v>51286</v>
+      <c r="M13" s="43">
+        <v>8630956</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1070,15 +1069,15 @@
         <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="6">
         <v>2700827</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="M14" s="8">
-        <v>51280</v>
+      <c r="M14" s="43">
+        <v>8630964</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1089,6 +1088,7 @@
       <c r="H15" s="15"/>
       <c r="K15" s="27"/>
       <c r="L15" s="17"/>
+      <c r="M15" s="43"/>
       <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1101,18 +1101,19 @@
         <v>1080739</v>
       </c>
       <c r="K16" s="27"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="H17" s="15"/>
+      <c r="E17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="14"/>
       <c r="K17" s="27"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="8">
-        <v>15268</v>
-      </c>
+      <c r="M17" s="43"/>
       <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1122,23 +1123,25 @@
       <c r="E18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="6">
+        <v>2072536</v>
+      </c>
       <c r="K18" s="27"/>
-      <c r="L18" s="17"/>
-      <c r="P18" s="18"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="E19" s="10"/>
       <c r="H19" s="15"/>
       <c r="I19" s="6">
-        <v>2072536</v>
+        <v>8821554</v>
       </c>
       <c r="K19" s="27"/>
+      <c r="M19" s="43"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
@@ -1146,26 +1149,29 @@
       </c>
       <c r="E20" s="10"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="6">
-        <v>8821554</v>
+      <c r="I20" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="K20" s="27"/>
-      <c r="P20" s="18"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="43">
+        <v>2099570</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="K21" s="27"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="8">
-        <v>34388</v>
-      </c>
+      <c r="M21" s="43">
+        <v>2878007</v>
+      </c>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
@@ -1175,44 +1181,45 @@
         <v>52</v>
       </c>
       <c r="H22" s="15"/>
+      <c r="I22" s="6">
+        <v>7127824</v>
+      </c>
       <c r="K22" s="27"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="8">
-        <v>60304</v>
-      </c>
-      <c r="P22" s="18"/>
+      <c r="M22" s="43">
+        <v>7529232</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>53</v>
+      <c r="E23" s="10">
+        <v>65350</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="6">
-        <v>7127824</v>
-      </c>
       <c r="K23" s="27"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="8">
-        <v>60295</v>
-      </c>
+      <c r="M23" s="43">
+        <v>7132137</v>
+      </c>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="10">
-        <v>65350</v>
+      <c r="E24" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="H24" s="15"/>
+      <c r="I24" s="6">
+        <v>1865161</v>
+      </c>
       <c r="K24" s="27"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="8">
-        <v>51153</v>
-      </c>
-      <c r="P24" s="18"/>
+      <c r="M24" s="43">
+        <v>1089599</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -1223,139 +1230,140 @@
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="6">
-        <v>1865161</v>
+        <v>7073742</v>
       </c>
       <c r="K25" s="27"/>
-      <c r="M25" s="8">
-        <v>25104</v>
-      </c>
+      <c r="M25" s="43">
+        <v>1659526</v>
+      </c>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="6">
-        <v>7073742</v>
+        <v>5797467</v>
       </c>
       <c r="K26" s="27"/>
-      <c r="M26" s="8">
-        <v>25554</v>
+      <c r="M26" s="43">
+        <v>1050395</v>
       </c>
       <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="E27" s="10">
+        <v>73400</v>
+      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="6">
-        <v>5797467</v>
+        <v>5925987</v>
       </c>
       <c r="K27" s="27"/>
-      <c r="M27" s="8">
-        <v>24979</v>
-      </c>
-      <c r="P27" s="18"/>
+      <c r="M27" s="43">
+        <v>1025100</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="10">
-        <v>73400</v>
-      </c>
-      <c r="H28" s="14"/>
+        <v>73410</v>
+      </c>
+      <c r="H28" s="15"/>
       <c r="I28" s="6">
-        <v>5925987</v>
+        <v>3031442</v>
       </c>
       <c r="K28" s="27"/>
-      <c r="M28" s="8">
-        <v>29046</v>
+      <c r="L28" s="17"/>
+      <c r="M28" s="43">
+        <v>1044711</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="10">
-        <v>73410</v>
+      <c r="E29" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="6">
-        <v>3031442</v>
+        <v>6472502</v>
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="8">
-        <v>29047</v>
-      </c>
+      <c r="M29" s="43">
+        <v>4890026</v>
+      </c>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="15"/>
+      <c r="E30" s="10">
+        <v>72976</v>
+      </c>
+      <c r="H30" s="14"/>
       <c r="I30" s="6">
-        <v>6472502</v>
+        <v>9035601</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="8">
-        <v>76474</v>
-      </c>
-      <c r="P30" s="18"/>
+      <c r="M30" s="43">
+        <v>1027552</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="10">
-        <v>72976</v>
+      <c r="B31" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="H31" s="14"/>
-      <c r="I31" s="6">
-        <v>9035601</v>
-      </c>
       <c r="K31" s="27"/>
       <c r="L31" s="17"/>
-      <c r="M31" s="8">
-        <v>25803</v>
-      </c>
+      <c r="M31" s="43">
+        <v>1027588</v>
+      </c>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="K32" s="27"/>
       <c r="L32" s="17"/>
-      <c r="M32" s="8">
-        <v>25790</v>
-      </c>
-      <c r="P32" s="18"/>
+      <c r="M32" s="43">
+        <v>1419514</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>58</v>
@@ -1363,25 +1371,23 @@
       <c r="H33" s="15"/>
       <c r="K33" s="27"/>
       <c r="L33" s="17"/>
-      <c r="M33" s="8">
-        <v>25781</v>
+      <c r="M33" s="43">
+        <v>1027620</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>41</v>
-      </c>
+      <c r="B34" s="30"/>
       <c r="E34" s="10" t="s">
         <v>59</v>
       </c>
       <c r="H34" s="15"/>
       <c r="K34" s="27"/>
       <c r="L34" s="17"/>
-      <c r="M34" s="8">
-        <v>25824</v>
+      <c r="M34" s="43">
+        <v>1027638</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -1395,9 +1401,10 @@
       <c r="H35" s="15"/>
       <c r="K35" s="27"/>
       <c r="L35" s="17"/>
-      <c r="M35" s="8">
-        <v>25793</v>
-      </c>
+      <c r="M35" s="43">
+        <v>864959</v>
+      </c>
+      <c r="P35" s="18"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1408,67 +1415,59 @@
         <v>61</v>
       </c>
       <c r="H36" s="15"/>
+      <c r="I36" s="6">
+        <v>1203207</v>
+      </c>
       <c r="K36" s="27"/>
       <c r="L36" s="17"/>
-      <c r="M36" s="8">
-        <v>25640</v>
+      <c r="M36" s="43">
+        <v>1132582</v>
       </c>
       <c r="P36" s="18"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="E37" s="10" t="s">
-        <v>62</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E37" s="10"/>
       <c r="H37" s="15"/>
       <c r="I37" s="6">
-        <v>1203207</v>
+        <v>2839082</v>
       </c>
       <c r="K37" s="27"/>
       <c r="L37" s="17"/>
-      <c r="M37" s="8">
-        <v>25328</v>
+      <c r="M37" s="43">
+        <v>1263755</v>
       </c>
       <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="E38" s="10">
+        <v>65698</v>
+      </c>
       <c r="H38" s="15"/>
       <c r="I38" s="6">
-        <v>2839082</v>
+        <v>6042113</v>
       </c>
       <c r="K38" s="27"/>
       <c r="L38" s="17"/>
-      <c r="M38" s="8">
-        <v>10868</v>
-      </c>
-      <c r="P38" s="18"/>
+      <c r="M38" s="43">
+        <v>1026184</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="10">
-        <v>65698</v>
-      </c>
+      <c r="E39" s="10"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="6">
-        <v>6042113</v>
-      </c>
       <c r="K39" s="27"/>
       <c r="L39" s="17"/>
-      <c r="M39" s="8">
-        <v>58997</v>
-      </c>
+      <c r="P39" s="18"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E40" s="10"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="15"/>
       <c r="K40" s="27"/>
       <c r="L40" s="17"/>
@@ -1478,72 +1477,74 @@
       <c r="E41" s="10"/>
       <c r="G41" s="25"/>
       <c r="H41" s="15"/>
-      <c r="K41" s="27"/>
       <c r="L41" s="17"/>
-      <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E42" s="10"/>
       <c r="G42" s="25"/>
       <c r="H42" s="15"/>
       <c r="L42" s="17"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E43" s="10"/>
       <c r="G43" s="25"/>
       <c r="H43" s="15"/>
-      <c r="L43" s="17"/>
-      <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E44" s="10"/>
       <c r="G44" s="25"/>
       <c r="H44" s="15"/>
+      <c r="L44" s="17"/>
+      <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" s="10"/>
       <c r="G45" s="25"/>
       <c r="H45" s="15"/>
       <c r="L45" s="17"/>
-      <c r="P45" s="18"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46" s="10"/>
       <c r="G46" s="25"/>
       <c r="H46" s="15"/>
       <c r="L46" s="17"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47" s="10"/>
       <c r="G47" s="25"/>
       <c r="H47" s="15"/>
+      <c r="K47" s="26"/>
       <c r="L47" s="17"/>
-      <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E48" s="10"/>
       <c r="G48" s="25"/>
       <c r="H48" s="15"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="17"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E49" s="10"/>
       <c r="G49" s="25"/>
       <c r="H49" s="15"/>
-      <c r="P49" s="18"/>
+      <c r="L49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="G50" s="25"/>
       <c r="H50" s="15"/>
       <c r="L50" s="17"/>
+      <c r="P50" s="18"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="10"/>
       <c r="G51" s="25"/>
       <c r="H51" s="15"/>
-      <c r="L51" s="17"/>
       <c r="P51" s="18"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -1552,30 +1553,27 @@
       <c r="C52" s="4"/>
       <c r="D52" s="19"/>
       <c r="E52" s="10"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="15"/>
-      <c r="P52" s="18"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="19"/>
       <c r="E53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="14"/>
+      <c r="L53" s="17"/>
+      <c r="P53" s="18"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="14"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="15"/>
       <c r="L54" s="17"/>
-      <c r="P54" s="18"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E55" s="10"/>
       <c r="G55" s="25"/>
       <c r="H55" s="15"/>
       <c r="L55" s="17"/>
+      <c r="P55" s="18"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E56" s="10"/>
@@ -1588,8 +1586,6 @@
       <c r="E57" s="10"/>
       <c r="G57" s="25"/>
       <c r="H57" s="15"/>
-      <c r="L57" s="17"/>
-      <c r="P57" s="18"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E58" s="10"/>
@@ -1600,54 +1596,55 @@
       <c r="E59" s="10"/>
       <c r="G59" s="25"/>
       <c r="H59" s="15"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E60" s="10"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="15"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="14"/>
       <c r="L60" s="17"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="14"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="15"/>
       <c r="L61" s="17"/>
-      <c r="P61" s="18"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="10"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="15"/>
+      <c r="H62" s="14"/>
       <c r="L62" s="17"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="10"/>
-      <c r="H63" s="14"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="15"/>
       <c r="L63" s="17"/>
+      <c r="P63" s="18"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="10"/>
       <c r="G64" s="25"/>
       <c r="H64" s="15"/>
-      <c r="L64" s="17"/>
-      <c r="P64" s="18"/>
     </row>
     <row r="65" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E65" s="10"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="15"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="14"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="15"/>
+      <c r="L66" s="17"/>
+      <c r="P66" s="18"/>
     </row>
     <row r="67" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E67" s="10"/>
       <c r="G67" s="25"/>
       <c r="H67" s="15"/>
       <c r="L67" s="17"/>
-      <c r="P67" s="18"/>
     </row>
     <row r="68" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E68" s="10"/>
@@ -1671,12 +1668,13 @@
       <c r="E71" s="10"/>
       <c r="G71" s="25"/>
       <c r="H71" s="15"/>
-      <c r="L71" s="17"/>
     </row>
     <row r="72" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E72" s="10"/>
       <c r="G72" s="25"/>
       <c r="H72" s="15"/>
+      <c r="L72" s="17"/>
+      <c r="P72" s="18"/>
     </row>
     <row r="73" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E73" s="10"/>
@@ -1689,27 +1687,20 @@
       <c r="E74" s="10"/>
       <c r="G74" s="25"/>
       <c r="H74" s="15"/>
-      <c r="L74" s="17"/>
       <c r="P74" s="18"/>
     </row>
     <row r="75" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E75" s="10"/>
       <c r="G75" s="25"/>
       <c r="H75" s="15"/>
+      <c r="L75" s="17"/>
       <c r="P75" s="18"/>
     </row>
     <row r="76" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E76" s="10"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="15"/>
-      <c r="L76" s="17"/>
-      <c r="P76" s="18"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H77" s="14"/>
-    </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H78" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
